--- a/Office Supplies Dashboard/hexmap.xlsx
+++ b/Office Supplies Dashboard/hexmap.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kabhi\OneDrive\Desktop\Sales Overview Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files and Folders\Tableau Dashboards\Complex Dashboards\Office Supplies Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F027C273-C548-4137-BD59-C3BFC59C4F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F56D641-4D0E-45A5-AE07-C020059E5267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="States" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -412,7 +412,99 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="PT Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -423,6 +515,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2257802-0AD0-40EE-B96A-172BDE17DAC6}" name="Table1" displayName="Table1" ref="A1:D52" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D52" xr:uid="{E2257802-0AD0-40EE-B96A-172BDE17DAC6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5CFEE264-77B8-4912-9803-500CEE20CB11}" name="Row" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{97A4C09A-4D41-4081-9DB0-91C65662964D}" name="Column" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{975E1C90-5077-4D9F-834E-B642ABC6B20D}" name="State" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{37954DB8-E97F-4B0B-9CC8-0BE068509BCF}" name="Abbreviation" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,7 +731,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4212,5 +4317,8 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>